--- a/artfynd/A 23049-2019.xlsx
+++ b/artfynd/A 23049-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1043,128 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112105099</v>
+      </c>
+      <c r="B5" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>350 m S Molkoms IP, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>427565.1123065132</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6608165.764175405</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Nyed</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>12:36</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Olle Kvarnbäck</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Olle Kvarnbäck</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23049-2019.xlsx
+++ b/artfynd/A 23049-2019.xlsx
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>427565.1123065132</v>
+        <v>427565</v>
       </c>
       <c r="R5" t="n">
-        <v>6608165.764175405</v>
+        <v>6608166</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 23049-2019.xlsx
+++ b/artfynd/A 23049-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,7 +1048,7 @@
         <v>112105099</v>
       </c>
       <c r="B5" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1164,6 +1164,109 @@
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112446377</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90152</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Molkomskogen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>427610</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6608234</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Karlstad</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Nyed</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-10-01</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Malin Max Nordgren</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Malin Max Nordgren</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 23049-2019.xlsx
+++ b/artfynd/A 23049-2019.xlsx
@@ -1170,7 +1170,7 @@
         <v>112446377</v>
       </c>
       <c r="B6" t="n">
-        <v>90152</v>
+        <v>90166</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
